--- a/data/trans_dic/P23_12_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_12_R-Estudios-trans_dic.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -98,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -111,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -498,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 92,95%)</t>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 89,35%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -555,149 +563,73 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -705,110 +637,83 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -820,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -841,7 +746,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 92,95%)</t>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 89,35%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -898,20 +803,14 @@
           <t>n</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="C4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -921,263 +820,139 @@
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="C5" s="6" t="inlineStr"/>
+      <c r="D5" s="6" t="inlineStr"/>
+      <c r="E5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr"/>
+      <c r="D6" s="6" t="inlineStr"/>
+      <c r="E6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+      <c r="D7" s="6" t="inlineStr"/>
+      <c r="E7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>n</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr"/>
+      <c r="D10" s="6" t="inlineStr"/>
+      <c r="E10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+      <c r="D11" s="6" t="inlineStr"/>
+      <c r="E11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>No Pertenece a Medición</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+      <c r="D13" s="6" t="inlineStr"/>
+      <c r="E13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1190,20 +965,14 @@
           <t>n</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="C16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1213,60 +982,46 @@
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+      <c r="D17" s="6" t="inlineStr"/>
+      <c r="E17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr"/>
+      <c r="D18" s="6" t="inlineStr"/>
+      <c r="E18" s="6" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr"/>
+      <c r="E19" s="6" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A10:A12"/>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
